--- a/lib/muban.xlsx
+++ b/lib/muban.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="37755" windowHeight="17745"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="37755" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>生产编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,12 +29,16 @@
     <t>二维码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>TPMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,7 +96,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -166,7 +170,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -201,7 +204,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -377,16 +379,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -396,6 +398,9 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -404,12 +409,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -417,12 +422,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
